--- a/biology/Médecine/Incapacité_permanente_partielle/Incapacité_permanente_partielle.xlsx
+++ b/biology/Médecine/Incapacité_permanente_partielle/Incapacité_permanente_partielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Incapacit%C3%A9_permanente_partielle</t>
+          <t>Incapacité_permanente_partielle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En droit français, l'Incapacité permanente partielle (IPP), aussi appelée déficit fonctionnel permanent, est un pourcentage exprimant l'importance des séquelles qui subsisteront définitivement et qui diminuent la capacité physique d'une personne qui a subi un accident[1]. Le terme est aussi utilisé dans le même sens en droit québécois[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En droit français, l'Incapacité permanente partielle (IPP), aussi appelée déficit fonctionnel permanent, est un pourcentage exprimant l'importance des séquelles qui subsisteront définitivement et qui diminuent la capacité physique d'une personne qui a subi un accident. Le terme est aussi utilisé dans le même sens en droit québécois.
 Ce taux d'invalidité ne peut être évalué qu'à partir de la date de consolidation, c’est-à-dire la période à partir de laquelle l'état de la personne est considéré comme permanent (lorsqu'elle ne reçoit plus de soins, ou que les seuls soins qu'elle reçoit ont pour but d'empêcher l’aggravation de son état).
 La doctrine a précisé qu’il s’agissait de la réduction du potentiel physique, psychologique, sensoriel ou intellectuel dont reste atteinte la victime.
 Il s’agit de réparer l’atteinte à l’intégrité physiologique de la personne, sans prendre en compte le retentissement sur l’activité professionnelle, indemnisé pour sa part à l'issue de l’évaluation du préjudice professionnel.
